--- a/resources/wheels/033 - Абляк.xlsx
+++ b/resources/wheels/033 - Абляк.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Колесо 1" sheetId="15" r:id="rId1"/>
-    <sheet name="Колесо 2" sheetId="1" r:id="rId2"/>
-    <sheet name="Колесо 3" sheetId="5" r:id="rId3"/>
-    <sheet name="Колесо 4" sheetId="3" r:id="rId4"/>
-    <sheet name="Колесо 5" sheetId="4" r:id="rId5"/>
-    <sheet name="Колесо 6" sheetId="2" r:id="rId6"/>
-    <sheet name="Колесо 7" sheetId="6" r:id="rId7"/>
-    <sheet name="Колесо 8" sheetId="8" r:id="rId8"/>
-    <sheet name="Колесо 9" sheetId="9" r:id="rId9"/>
-    <sheet name="Колесо 10" sheetId="10" r:id="rId10"/>
-    <sheet name="Колесо 11" sheetId="11" r:id="rId11"/>
-    <sheet name="Колесо 12" sheetId="12" r:id="rId12"/>
-    <sheet name="Колесо 13" sheetId="13" r:id="rId13"/>
-    <sheet name="Колесо 14" sheetId="14" r:id="rId14"/>
+    <sheet name="Т1" sheetId="2" r:id="rId1"/>
+    <sheet name="Т2" sheetId="6" r:id="rId2"/>
+    <sheet name="Т3" sheetId="15" r:id="rId3"/>
+    <sheet name="Т4" sheetId="3" r:id="rId4"/>
+    <sheet name="Т5" sheetId="4" r:id="rId5"/>
+    <sheet name="Т6" sheetId="5" r:id="rId6"/>
+    <sheet name="Т7" sheetId="1" r:id="rId7"/>
+    <sheet name="П1" sheetId="8" r:id="rId8"/>
+    <sheet name="П2" sheetId="9" r:id="rId9"/>
+    <sheet name="П3" sheetId="10" r:id="rId10"/>
+    <sheet name="П4" sheetId="11" r:id="rId11"/>
+    <sheet name="П5" sheetId="12" r:id="rId12"/>
+    <sheet name="П6" sheetId="13" r:id="rId13"/>
+    <sheet name="П7" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="56">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -130,9 +130,6 @@
     <t>декабрь 2020</t>
   </si>
   <si>
-    <t>Бел-158</t>
-  </si>
-  <si>
     <t>Итоговый пробег т.км</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Китай</t>
   </si>
   <si>
-    <t>07495</t>
-  </si>
-  <si>
     <t>Предприятие</t>
   </si>
   <si>
@@ -197,6 +191,15 @@
   </si>
   <si>
     <t>45-11 KA</t>
+  </si>
+  <si>
+    <t>NF 201</t>
+  </si>
+  <si>
+    <t>103443</t>
+  </si>
+  <si>
+    <t>103991</t>
   </si>
 </sst>
 </file>
@@ -347,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -428,6 +431,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -731,36 +737,36 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="17" style="22" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -768,10 +774,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -782,8 +788,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -794,6 +802,8 @@
         <v>1</v>
       </c>
       <c r="B5" s="15"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -803,9 +813,11 @@
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15">
-        <v>48216</v>
-      </c>
+      <c r="B6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -815,9 +827,9 @@
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="15">
-        <v>18</v>
-      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -828,6 +840,8 @@
         <v>9</v>
       </c>
       <c r="B8" s="15"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -838,8 +852,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -849,7 +865,11 @@
       <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="15">
+        <v>672</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -860,8 +880,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>12</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -869,11 +891,13 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -882,43 +906,45 @@
     <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>33</v>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -926,39 +952,46 @@
         <v>17</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="26">
-        <v>44034</v>
+        <v>44064</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1.829</v>
+      </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>0</v>
+        <v>3.3260000000000001</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1.4970000000000001</v>
+      </c>
       <c r="G17" s="23"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="E18" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -967,8 +1000,9 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="E19" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
@@ -977,8 +1011,9 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="E20" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
@@ -987,9 +1022,8 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="E21" s="19" t="s">
-        <v>31</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="1"/>
@@ -997,6 +1031,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="E22" s="19"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -1005,6 +1040,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="E23" s="19"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
@@ -1013,6 +1049,8 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
       <c r="H24" s="1"/>
@@ -1020,6 +1058,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
       <c r="H25" s="1"/>
@@ -1027,6 +1066,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
       <c r="H26" s="1"/>
@@ -1034,6 +1074,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="1"/>
@@ -1041,6 +1082,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="1"/>
@@ -1048,6 +1090,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="1"/>
@@ -1055,6 +1098,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
       <c r="E30" s="19"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1063,7 +1107,8 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="D31" s="24"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -1072,7 +1117,8 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="D32" s="24"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -1081,7 +1127,8 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -1090,7 +1137,8 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="D34" s="24"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -1099,7 +1147,8 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="D35" s="24"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -1108,7 +1157,8 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="D36" s="24"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -1117,7 +1167,8 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -1126,7 +1177,8 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -1135,7 +1187,8 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -1144,7 +1197,8 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="D40" s="24"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -1153,362 +1207,363 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="24"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="24"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="24"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="24"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="24"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="24"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="24"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D49" s="24"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D50" s="24"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D51" s="24"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D52" s="24"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D53" s="24"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D54" s="24"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D55" s="24"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D56" s="24"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D57" s="24"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D58" s="24"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D59" s="24"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D60" s="24"/>
+      <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D61" s="24"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D62" s="24"/>
+      <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D63" s="24"/>
+      <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D64" s="24"/>
+      <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D65" s="24"/>
+      <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D66" s="24"/>
+      <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D67" s="24"/>
+      <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D68" s="24"/>
+      <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D69" s="24"/>
+      <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
     </row>
     <row r="70" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D70" s="24"/>
+      <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
     </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D71" s="24"/>
+      <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D72" s="24"/>
+      <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D73" s="24"/>
+      <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D74" s="24"/>
+      <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D75" s="24"/>
+      <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D76" s="24"/>
+      <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D77" s="24"/>
+      <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D78" s="24"/>
+      <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D79" s="24"/>
+      <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D80" s="24"/>
+      <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
     <row r="81" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D81" s="24"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
     </row>
     <row r="82" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D82" s="24"/>
+      <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D83" s="24"/>
+      <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
     </row>
     <row r="84" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D84" s="24"/>
+      <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
     </row>
     <row r="85" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D85" s="24"/>
+      <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
     </row>
     <row r="86" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D86" s="24"/>
+      <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
     <row r="87" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D87" s="24"/>
+      <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
     </row>
     <row r="88" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D88" s="24"/>
+      <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
     </row>
     <row r="89" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D89" s="24"/>
+      <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
     </row>
     <row r="90" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D90" s="24"/>
+      <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
     </row>
     <row r="91" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D91" s="24"/>
+      <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
     </row>
     <row r="92" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D92" s="24"/>
+      <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
     <row r="93" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D93" s="24"/>
+      <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
     </row>
     <row r="94" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D94" s="24"/>
+      <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
     </row>
     <row r="95" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D95" s="24"/>
+      <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
     <row r="96" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D96" s="24"/>
+      <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D97" s="24"/>
+      <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D98" s="24"/>
+      <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D99" s="24"/>
+      <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D100" s="24"/>
+      <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -1525,6 +1580,7 @@
     <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1532,34 +1588,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -1570,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1584,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1650,7 +1706,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1678,7 +1734,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1689,10 +1745,10 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1712,45 +1768,45 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>33</v>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="26">
         <v>43389</v>
@@ -1759,14 +1815,14 @@
         <v>18</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="23">
         <v>35.200000000000003</v>
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>42.7</v>
+        <v>48.243000000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1869,7 +1925,9 @@
       <c r="E24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.2170000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="1"/>
     </row>
@@ -1880,7 +1938,9 @@
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.829</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="1"/>
     </row>
@@ -1891,7 +1951,9 @@
       <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.4970000000000001</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="1"/>
     </row>
@@ -2421,34 +2483,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -2459,7 +2521,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2473,7 +2535,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2539,7 +2601,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2567,7 +2629,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2578,10 +2640,10 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2601,45 +2663,45 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>33</v>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="26">
         <v>43389</v>
@@ -2648,14 +2710,14 @@
         <v>18</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="23">
         <v>35.200000000000003</v>
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>42.7</v>
+        <v>48.243000000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2758,7 +2820,9 @@
       <c r="E24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.2170000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="1"/>
     </row>
@@ -2769,7 +2833,9 @@
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.829</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="1"/>
     </row>
@@ -2780,7 +2846,9 @@
       <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.4970000000000001</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="1"/>
     </row>
@@ -3310,34 +3378,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -3348,7 +3416,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3362,7 +3430,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3428,7 +3496,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3456,7 +3524,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3467,10 +3535,10 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3490,45 +3558,45 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>33</v>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="26">
         <v>43389</v>
@@ -3537,14 +3605,14 @@
         <v>18</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="23">
         <v>35.200000000000003</v>
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>42.7</v>
+        <v>48.243000000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3647,7 +3715,9 @@
       <c r="E24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.2170000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="1"/>
     </row>
@@ -3658,7 +3728,9 @@
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.829</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="1"/>
     </row>
@@ -3669,7 +3741,9 @@
       <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.4970000000000001</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="1"/>
     </row>
@@ -4199,34 +4273,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -4237,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4251,7 +4325,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4317,7 +4391,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4345,7 +4419,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4356,10 +4430,10 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4379,45 +4453,45 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>33</v>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="26">
         <v>43389</v>
@@ -4426,14 +4500,14 @@
         <v>18</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="23">
         <v>35.200000000000003</v>
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>42.7</v>
+        <v>48.243000000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4536,7 +4610,9 @@
       <c r="E24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.2170000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="1"/>
     </row>
@@ -4547,7 +4623,9 @@
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.829</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="1"/>
     </row>
@@ -4558,7 +4636,9 @@
       <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.4970000000000001</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="1"/>
     </row>
@@ -5088,34 +5168,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -5126,7 +5206,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5140,7 +5220,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5164,7 +5244,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5199,7 +5279,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5225,7 +5305,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5235,10 +5315,10 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5256,45 +5336,45 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>33</v>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="26">
         <v>42385</v>
@@ -5303,14 +5383,14 @@
         <v>18</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="23">
         <v>51.6</v>
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>59.1</v>
+        <v>64.643000000000001</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5413,7 +5493,9 @@
       <c r="E24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.2170000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="1"/>
     </row>
@@ -5424,7 +5506,9 @@
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.829</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="1"/>
     </row>
@@ -5435,7 +5519,9 @@
       <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.4970000000000001</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="1"/>
     </row>
@@ -5965,37 +6051,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="17" style="22" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6003,848 +6089,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="15">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="15">
-        <v>320</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="31" t="s">
         <v>33</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="26">
-        <v>43768</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="23">
-        <v>2.9</v>
-      </c>
-      <c r="G16" s="23">
-        <f>SUM(F16:F100)</f>
-        <v>10.4</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1"/>
-      <c r="E17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="23">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="E18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="23">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="E19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="E20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="23">
-        <v>2</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="E21" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="E22" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="E23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="23">
-        <v>2.5</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="E24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="E25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="E26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="E27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="E28" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="E29" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="24"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="24"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="24"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="24"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="24"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="24"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="24"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D49" s="24"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D50" s="24"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D51" s="24"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D52" s="24"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D53" s="24"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D54" s="24"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D55" s="24"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D56" s="24"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D57" s="24"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D58" s="24"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D59" s="24"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D60" s="24"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D61" s="24"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D62" s="24"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D63" s="24"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D64" s="24"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D65" s="24"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D66" s="24"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D67" s="24"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D68" s="24"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D69" s="24"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D70" s="24"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D71" s="24"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-    </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D72" s="24"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-    </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D73" s="24"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-    </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D74" s="24"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-    </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D75" s="24"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-    </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D76" s="24"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-    </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D77" s="24"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-    </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D78" s="24"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-    </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D79" s="24"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-    </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D80" s="24"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-    </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D81" s="24"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-    </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D82" s="24"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-    </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D83" s="24"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-    </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D84" s="24"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-    </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D85" s="24"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-    </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D86" s="24"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-    </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D87" s="24"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-    </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D88" s="24"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-    </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D89" s="24"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-    </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D90" s="24"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-    </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D91" s="24"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-    </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D92" s="24"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-    </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D93" s="24"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-    </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D94" s="24"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-    </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D95" s="24"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-    </row>
-    <row r="96" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D96" s="24"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-    </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D97" s="24"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-    </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D98" s="24"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-    </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D99" s="24"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-    </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D100" s="24"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6858,7 +6103,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6883,7 +6128,9 @@
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -6895,9 +6142,7 @@
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="15">
-        <v>18</v>
-      </c>
+      <c r="B7" s="15"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -6922,7 +6167,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -6936,7 +6181,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="15">
-        <v>320</v>
+        <v>672</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -6950,7 +6195,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6961,10 +6206,10 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -6984,26 +6229,26 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>33</v>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -7012,7 +6257,7 @@
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="1"/>
@@ -7022,23 +6267,23 @@
         <v>17</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="26">
-        <v>43768</v>
+        <v>44064</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>52</v>
+      <c r="E16" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="F16" s="23">
-        <v>2.9</v>
+        <v>1.829</v>
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>10.4</v>
+        <v>3.3260000000000001</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7048,10 +6293,10 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="19" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F17" s="23">
-        <v>0</v>
+        <v>1.4970000000000001</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="1"/>
@@ -7061,11 +6306,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="23">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="1"/>
     </row>
@@ -7074,11 +6317,9 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="E19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="23">
-        <v>1.3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="1"/>
     </row>
@@ -7087,11 +6328,9 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="23">
-        <v>2</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="1"/>
     </row>
@@ -7099,12 +6338,8 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="E21" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="23">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="1"/>
     </row>
@@ -7112,12 +6347,8 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="E22" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="23">
-        <v>0.6</v>
-      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="1"/>
     </row>
@@ -7125,12 +6356,8 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="E23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="23">
-        <v>2.5</v>
-      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="1"/>
     </row>
@@ -7138,9 +6365,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="E24" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="E24" s="19"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
       <c r="H24" s="1"/>
@@ -7149,9 +6374,6 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="E25" s="19" t="s">
-        <v>27</v>
-      </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
       <c r="H25" s="1"/>
@@ -7160,9 +6382,6 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="E26" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
       <c r="H26" s="1"/>
@@ -7171,9 +6390,6 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="E27" s="19" t="s">
-        <v>29</v>
-      </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="1"/>
@@ -7182,9 +6398,6 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="E28" s="19" t="s">
-        <v>30</v>
-      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="1"/>
@@ -7193,9 +6406,6 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="E29" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="1"/>
@@ -7689,6 +6899,814 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="22" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15">
+        <v>48216</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="26">
+        <v>44034</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="23">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="G16" s="23">
+        <f>SUM(F16:F100)</f>
+        <v>5.5430000000000001</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1"/>
+      <c r="E17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1.829</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="E18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="23">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="E19" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="E20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="E21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="24"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="24"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="24"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="24"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="24"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="24"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="24"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="24"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="24"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D51" s="24"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D52" s="24"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D53" s="24"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="24"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="24"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D56" s="24"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="24"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="24"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="24"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="24"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="24"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D62" s="24"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="24"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D64" s="24"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D65" s="24"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D66" s="24"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D67" s="24"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D68" s="24"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D69" s="24"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D70" s="24"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D71" s="24"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D72" s="24"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D73" s="24"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D74" s="24"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D75" s="24"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D76" s="24"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D77" s="24"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D78" s="24"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D79" s="24"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D80" s="24"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D81" s="24"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D82" s="24"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D83" s="24"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D84" s="24"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D85" s="24"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D86" s="24"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D87" s="24"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D88" s="24"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D89" s="24"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D90" s="24"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D91" s="24"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D92" s="24"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D93" s="24"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D94" s="24"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D95" s="24"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D96" s="24"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D97" s="24"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D98" s="24"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D99" s="24"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D100" s="24"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
@@ -7699,28 +7717,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
@@ -7809,7 +7827,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -7848,10 +7866,10 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -7871,37 +7889,37 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>33</v>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -7909,7 +7927,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="26">
         <v>43768</v>
@@ -7918,14 +7936,14 @@
         <v>18</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="23">
         <v>2.9</v>
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>10.4</v>
+        <v>15.943000000000001</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8028,7 +8046,9 @@
       <c r="E24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.2170000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="1"/>
     </row>
@@ -8039,7 +8059,9 @@
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.829</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="1"/>
     </row>
@@ -8050,7 +8072,9 @@
       <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.4970000000000001</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="1"/>
     </row>
@@ -8586,28 +8610,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
@@ -8696,7 +8720,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -8735,10 +8759,10 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -8758,37 +8782,37 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>33</v>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -8796,7 +8820,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="26">
         <v>43768</v>
@@ -8805,14 +8829,14 @@
         <v>18</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="23">
         <v>2.9</v>
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>10.4</v>
+        <v>15.943000000000001</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8915,7 +8939,9 @@
       <c r="E24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.2170000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="1"/>
     </row>
@@ -8926,7 +8952,9 @@
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.829</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="1"/>
     </row>
@@ -8937,7 +8965,9 @@
       <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.4970000000000001</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="1"/>
     </row>
@@ -9473,28 +9503,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -9505,7 +9535,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -9519,7 +9549,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9544,9 +9574,7 @@
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>47</v>
-      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -9585,7 +9613,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -9599,7 +9627,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="15">
-        <v>3140200</v>
+        <v>320</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -9624,10 +9652,10 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -9647,37 +9675,37 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>33</v>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -9685,23 +9713,23 @@
         <v>17</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="26">
-        <v>42289</v>
+        <v>43768</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="23">
-        <v>66.3</v>
+        <v>2.9</v>
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>73.799999999999983</v>
+        <v>15.943000000000001</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9804,7 +9832,9 @@
       <c r="E24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.2170000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="1"/>
     </row>
@@ -9815,7 +9845,9 @@
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.829</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="1"/>
     </row>
@@ -9826,7 +9858,9 @@
       <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.4970000000000001</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="1"/>
     </row>
@@ -10356,34 +10390,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="22" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -10394,10 +10428,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -10408,10 +10442,8 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+        <v>11</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -10422,8 +10454,6 @@
         <v>1</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -10433,11 +10463,7 @@
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15">
-        <v>77399</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="15"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -10450,8 +10476,6 @@
       <c r="B7" s="15">
         <v>18</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -10462,8 +10486,6 @@
         <v>9</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -10474,10 +10496,8 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+        <v>44</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -10488,10 +10508,8 @@
         <v>7</v>
       </c>
       <c r="B10" s="15">
-        <v>3140200</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+        <v>320</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -10504,8 +10522,6 @@
       <c r="B11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -10513,13 +10529,11 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+        <v>47</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -10528,45 +10542,43 @@
     <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>33</v>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10574,31 +10586,29 @@
         <v>17</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="26">
-        <v>42289</v>
+        <v>43768</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="23">
-        <v>66.3</v>
+        <v>2.9</v>
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>73.799999999999983</v>
+        <v>15.943000000000001</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
       <c r="E17" s="19" t="s">
         <v>19</v>
       </c>
@@ -10611,7 +10621,6 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
       <c r="E18" s="19" t="s">
         <v>20</v>
       </c>
@@ -10624,7 +10633,6 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
       <c r="E19" s="19" t="s">
         <v>21</v>
       </c>
@@ -10637,7 +10645,6 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
       <c r="E20" s="19" t="s">
         <v>22</v>
       </c>
@@ -10650,7 +10657,6 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
       <c r="E21" s="19" t="s">
         <v>23</v>
       </c>
@@ -10663,7 +10669,6 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
       <c r="E22" s="19" t="s">
         <v>24</v>
       </c>
@@ -10676,7 +10681,6 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
       <c r="E23" s="19" t="s">
         <v>25</v>
       </c>
@@ -10689,40 +10693,42 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
       <c r="E24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.2170000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.829</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
       <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.4970000000000001</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
       <c r="E27" s="19" t="s">
         <v>29</v>
       </c>
@@ -10733,7 +10739,6 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
       <c r="E28" s="19" t="s">
         <v>30</v>
       </c>
@@ -10744,7 +10749,6 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
       <c r="E29" s="19" t="s">
         <v>31</v>
       </c>
@@ -10755,7 +10759,6 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
       <c r="E30" s="19"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -10764,8 +10767,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="8"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="8"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -10774,8 +10776,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="8"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="8"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -10784,8 +10785,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="8"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="8"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -10794,8 +10794,7 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="8"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="8"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -10804,8 +10803,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="8"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="8"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -10814,8 +10812,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="8"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="8"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -10824,8 +10821,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="8"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="8"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -10834,8 +10830,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="8"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="8"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -10844,8 +10839,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="8"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="8"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -10854,8 +10848,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="8"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="8"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -10864,363 +10857,362 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="8"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="8"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="9"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="9"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="9"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="9"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="9"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="9"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="9"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="9"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="9"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="9"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="9"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="9"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="9"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="9"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D49" s="9"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="9"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D50" s="9"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="9"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D51" s="9"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="9"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D52" s="9"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="9"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D53" s="9"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="9"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D54" s="9"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="9"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D55" s="9"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="9"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D56" s="9"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="9"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D57" s="9"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="9"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D58" s="9"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="9"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D59" s="9"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="9"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D60" s="9"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="9"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D61" s="9"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="9"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D62" s="9"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="9"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D63" s="9"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="9"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D64" s="9"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="9"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D65" s="9"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="9"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D66" s="9"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="9"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D67" s="9"/>
+      <c r="D67" s="24"/>
       <c r="E67" s="9"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D68" s="9"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="9"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D69" s="9"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="9"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
     </row>
     <row r="70" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D70" s="9"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="9"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
     </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D71" s="9"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="9"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D72" s="9"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="9"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D73" s="9"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="9"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D74" s="9"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="9"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D75" s="9"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="9"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D76" s="9"/>
+      <c r="D76" s="24"/>
       <c r="E76" s="9"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D77" s="9"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="9"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D78" s="9"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="9"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D79" s="9"/>
+      <c r="D79" s="24"/>
       <c r="E79" s="9"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D80" s="9"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="9"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
     <row r="81" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D81" s="9"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="9"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
     </row>
     <row r="82" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D82" s="9"/>
+      <c r="D82" s="24"/>
       <c r="E82" s="9"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D83" s="9"/>
+      <c r="D83" s="24"/>
       <c r="E83" s="9"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
     </row>
     <row r="84" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D84" s="9"/>
+      <c r="D84" s="24"/>
       <c r="E84" s="9"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
     </row>
     <row r="85" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D85" s="9"/>
+      <c r="D85" s="24"/>
       <c r="E85" s="9"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
     </row>
     <row r="86" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D86" s="9"/>
+      <c r="D86" s="24"/>
       <c r="E86" s="9"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
     <row r="87" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D87" s="9"/>
+      <c r="D87" s="24"/>
       <c r="E87" s="9"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
     </row>
     <row r="88" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D88" s="9"/>
+      <c r="D88" s="24"/>
       <c r="E88" s="9"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
     </row>
     <row r="89" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D89" s="9"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="9"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
     </row>
     <row r="90" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D90" s="9"/>
+      <c r="D90" s="24"/>
       <c r="E90" s="9"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
     </row>
     <row r="91" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D91" s="9"/>
+      <c r="D91" s="24"/>
       <c r="E91" s="9"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
     </row>
     <row r="92" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D92" s="9"/>
+      <c r="D92" s="24"/>
       <c r="E92" s="9"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
     <row r="93" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D93" s="9"/>
+      <c r="D93" s="24"/>
       <c r="E93" s="9"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
     </row>
     <row r="94" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D94" s="9"/>
+      <c r="D94" s="24"/>
       <c r="E94" s="9"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
     </row>
     <row r="95" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D95" s="9"/>
+      <c r="D95" s="24"/>
       <c r="E95" s="9"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
     <row r="96" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D96" s="9"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="9"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D97" s="9"/>
+      <c r="D97" s="24"/>
       <c r="E97" s="9"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D98" s="9"/>
+      <c r="D98" s="24"/>
       <c r="E98" s="9"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D99" s="9"/>
+      <c r="D99" s="24"/>
       <c r="E99" s="9"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D100" s="9"/>
+      <c r="D100" s="24"/>
       <c r="E100" s="9"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -11228,13 +11220,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -11251,28 +11243,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -11283,7 +11275,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -11297,7 +11289,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -11311,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -11325,7 +11317,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -11365,7 +11357,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -11379,7 +11371,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -11393,7 +11385,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -11404,10 +11396,10 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -11427,45 +11419,45 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>33</v>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="26">
         <v>43565</v>
@@ -11474,14 +11466,14 @@
         <v>18</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="23">
         <v>24.6</v>
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>32.100000000000009</v>
+        <v>37.643000000000008</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -11584,7 +11576,9 @@
       <c r="E24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.2170000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="1"/>
     </row>
@@ -11595,7 +11589,9 @@
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.829</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="1"/>
     </row>
@@ -11606,7 +11602,9 @@
       <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.4970000000000001</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="1"/>
     </row>
@@ -12136,34 +12134,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -12174,7 +12172,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -12188,7 +12186,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -12202,7 +12200,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -12216,7 +12214,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12256,7 +12254,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -12270,7 +12268,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -12284,7 +12282,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -12295,10 +12293,10 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -12318,45 +12316,45 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>33</v>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="26">
         <v>43565</v>
@@ -12365,14 +12363,14 @@
         <v>18</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="23">
         <v>24.6</v>
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>32.100000000000009</v>
+        <v>37.643000000000008</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -12475,7 +12473,9 @@
       <c r="E24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.2170000000000001</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="1"/>
     </row>
@@ -12486,7 +12486,9 @@
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>1.829</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="1"/>
     </row>
@@ -12497,7 +12499,9 @@
       <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.4970000000000001</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="1"/>
     </row>

--- a/resources/wheels/033 - Абляк.xlsx
+++ b/resources/wheels/033 - Абляк.xlsx
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="68">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -200,6 +200,42 @@
   </si>
   <si>
     <t>103991</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -742,16 +778,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -966,9 +1002,9 @@
       <c r="F16" s="23">
         <v>1.829</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>3.3260000000000001</v>
+        <v>9.225</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -993,7 +1029,9 @@
       <c r="E18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="23">
+        <v>1.7190000000000001</v>
+      </c>
       <c r="G18" s="23"/>
       <c r="H18" s="1"/>
     </row>
@@ -1004,7 +1042,9 @@
       <c r="E19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="23">
+        <v>2.048</v>
+      </c>
       <c r="G19" s="23"/>
       <c r="H19" s="1"/>
     </row>
@@ -1015,7 +1055,9 @@
       <c r="E20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="23" t="n">
+        <v>2.132</v>
+      </c>
       <c r="G20" s="23"/>
       <c r="H20" s="1"/>
     </row>
@@ -1594,16 +1636,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1820,9 +1862,9 @@
       <c r="F16" s="23">
         <v>35.200000000000003</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>48.243000000000002</v>
+        <v>54.142</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1964,7 +2006,9 @@
       <c r="E27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.7190000000000001</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="1"/>
     </row>
@@ -1975,7 +2019,9 @@
       <c r="E28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>2.048</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="1"/>
     </row>
@@ -1986,7 +2032,9 @@
       <c r="E29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>2.132</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="1"/>
     </row>
@@ -2489,16 +2537,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2715,9 +2763,9 @@
       <c r="F16" s="23">
         <v>35.200000000000003</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>48.243000000000002</v>
+        <v>54.142</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2859,7 +2907,9 @@
       <c r="E27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.7190000000000001</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="1"/>
     </row>
@@ -2870,7 +2920,9 @@
       <c r="E28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>2.048</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="1"/>
     </row>
@@ -2881,7 +2933,9 @@
       <c r="E29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>2.132</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="1"/>
     </row>
@@ -3384,16 +3438,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3610,9 +3664,9 @@
       <c r="F16" s="23">
         <v>35.200000000000003</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>48.243000000000002</v>
+        <v>54.142</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3754,7 +3808,9 @@
       <c r="E27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.7190000000000001</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="1"/>
     </row>
@@ -3765,7 +3821,9 @@
       <c r="E28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>2.048</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="1"/>
     </row>
@@ -3776,7 +3834,9 @@
       <c r="E29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>2.132</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="1"/>
     </row>
@@ -4279,16 +4339,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4505,9 +4565,9 @@
       <c r="F16" s="23">
         <v>35.200000000000003</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>48.243000000000002</v>
+        <v>54.142</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4649,7 +4709,9 @@
       <c r="E27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.7190000000000001</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="1"/>
     </row>
@@ -4660,7 +4722,9 @@
       <c r="E28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>2.048</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="1"/>
     </row>
@@ -4671,7 +4735,9 @@
       <c r="E29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>2.132</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="1"/>
     </row>
@@ -5174,16 +5240,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5388,9 +5454,9 @@
       <c r="F16" s="23">
         <v>51.6</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>64.643000000000001</v>
+        <v>70.542</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5532,7 +5598,9 @@
       <c r="E27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.7190000000000001</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="1"/>
     </row>
@@ -5543,7 +5611,9 @@
       <c r="E28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>2.048</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="1"/>
     </row>
@@ -5554,7 +5624,9 @@
       <c r="E29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>2.132</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="1"/>
     </row>
@@ -6057,16 +6129,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6281,9 +6353,9 @@
       <c r="F16" s="23">
         <v>1.829</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>3.3260000000000001</v>
+        <v>9.225</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6308,7 +6380,9 @@
       <c r="E18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="23">
+        <v>1.7190000000000001</v>
+      </c>
       <c r="G18" s="23"/>
       <c r="H18" s="1"/>
     </row>
@@ -6319,7 +6393,9 @@
       <c r="E19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="23">
+        <v>2.048</v>
+      </c>
       <c r="G19" s="23"/>
       <c r="H19" s="1"/>
     </row>
@@ -6330,7 +6406,9 @@
       <c r="E20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="23" t="n">
+        <v>2.132</v>
+      </c>
       <c r="G20" s="23"/>
       <c r="H20" s="1"/>
     </row>
@@ -6909,16 +6987,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="22" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="22" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="22" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7113,9 +7191,9 @@
       <c r="F16" s="23">
         <v>2.2170000000000001</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>5.5430000000000001</v>
+        <v>11.442</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7149,7 +7227,9 @@
       <c r="E19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="23">
+        <v>1.7190000000000001</v>
+      </c>
       <c r="G19" s="23"/>
       <c r="H19" s="1"/>
     </row>
@@ -7159,7 +7239,9 @@
       <c r="E20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="23">
+        <v>2.048</v>
+      </c>
       <c r="G20" s="23"/>
       <c r="H20" s="1"/>
     </row>
@@ -7169,7 +7251,9 @@
       <c r="E21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="23" t="n">
+        <v>2.132</v>
+      </c>
       <c r="G21" s="23"/>
       <c r="H21" s="1"/>
     </row>
@@ -7717,16 +7801,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7941,9 +8025,9 @@
       <c r="F16" s="23">
         <v>2.9</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>15.943000000000001</v>
+        <v>21.842000000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8085,7 +8169,9 @@
       <c r="E27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.7190000000000001</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="1"/>
     </row>
@@ -8096,7 +8182,9 @@
       <c r="E28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>2.048</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="1"/>
     </row>
@@ -8107,7 +8195,9 @@
       <c r="E29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>2.132</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="1"/>
     </row>
@@ -8610,16 +8700,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8834,9 +8924,9 @@
       <c r="F16" s="23">
         <v>2.9</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>15.943000000000001</v>
+        <v>21.842000000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8978,7 +9068,9 @@
       <c r="E27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.7190000000000001</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="1"/>
     </row>
@@ -8989,7 +9081,9 @@
       <c r="E28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>2.048</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="1"/>
     </row>
@@ -9000,7 +9094,9 @@
       <c r="E29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>2.132</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="1"/>
     </row>
@@ -9503,16 +9599,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9727,9 +9823,9 @@
       <c r="F16" s="23">
         <v>2.9</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>15.943000000000001</v>
+        <v>21.842000000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9871,7 +9967,9 @@
       <c r="E27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.7190000000000001</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="1"/>
     </row>
@@ -9882,7 +9980,9 @@
       <c r="E28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>2.048</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="1"/>
     </row>
@@ -9893,7 +9993,9 @@
       <c r="E29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>2.132</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="1"/>
     </row>
@@ -10396,16 +10498,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="22" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="22" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="22" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10600,9 +10702,9 @@
       <c r="F16" s="23">
         <v>2.9</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>15.943000000000001</v>
+        <v>21.842000000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -10732,7 +10834,9 @@
       <c r="E27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.7190000000000001</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="1"/>
     </row>
@@ -10742,7 +10846,9 @@
       <c r="E28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>2.048</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="1"/>
     </row>
@@ -10752,7 +10858,9 @@
       <c r="E29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>2.132</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="1"/>
     </row>
@@ -11237,22 +11345,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11471,9 +11579,9 @@
       <c r="F16" s="23">
         <v>24.6</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>37.643000000000008</v>
+        <v>45.290000000000006</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -11615,7 +11723,9 @@
       <c r="E27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.7190000000000001</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="1"/>
     </row>
@@ -11626,7 +11736,9 @@
       <c r="E28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>2.048</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="1"/>
     </row>
@@ -11637,7 +11749,9 @@
       <c r="E29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>2.132</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="1"/>
     </row>
@@ -11645,8 +11759,12 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>1.748</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
     </row>
@@ -11655,7 +11773,9 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -11665,7 +11785,9 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -11675,7 +11797,9 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -11685,7 +11809,9 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -11695,7 +11821,9 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -11705,7 +11833,9 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -11715,7 +11845,9 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="1"/>
@@ -11725,7 +11857,9 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
@@ -11735,7 +11869,9 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="1"/>
@@ -11745,7 +11881,9 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="1"/>
@@ -11755,7 +11893,9 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="1"/>
@@ -12140,16 +12280,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -12368,9 +12508,9 @@
       <c r="F16" s="23">
         <v>24.6</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>37.643000000000008</v>
+        <v>43.54200000000001</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -12512,7 +12652,9 @@
       <c r="E27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.7190000000000001</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="1"/>
     </row>
@@ -12523,7 +12665,9 @@
       <c r="E28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>2.048</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="1"/>
     </row>
@@ -12534,7 +12678,9 @@
       <c r="E29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>2.132</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="1"/>
     </row>
